--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N2">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O2">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P2">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q2">
-        <v>10390.49123715038</v>
+        <v>5970.738623805934</v>
       </c>
       <c r="R2">
-        <v>93514.42113435341</v>
+        <v>53736.64761425342</v>
       </c>
       <c r="S2">
-        <v>0.1080802336920854</v>
+        <v>0.05789113816799464</v>
       </c>
       <c r="T2">
-        <v>0.1124239460425757</v>
+        <v>0.0592259261008824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P3">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q3">
-        <v>2484.868376398305</v>
+        <v>1750.041946402614</v>
       </c>
       <c r="R3">
-        <v>22363.81538758475</v>
+        <v>15750.37751762352</v>
       </c>
       <c r="S3">
-        <v>0.02584720478421349</v>
+        <v>0.01696807154060289</v>
       </c>
       <c r="T3">
-        <v>0.02688599623396832</v>
+        <v>0.01735930200960919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N4">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O4">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P4">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q4">
-        <v>368.150581489671</v>
+        <v>265.638492565472</v>
       </c>
       <c r="R4">
-        <v>3313.355233407039</v>
+        <v>2390.746433089248</v>
       </c>
       <c r="S4">
-        <v>0.003829443668554908</v>
+        <v>0.002575579948271638</v>
       </c>
       <c r="T4">
-        <v>0.00398334786722641</v>
+        <v>0.002634964737445489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N5">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O5">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P5">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q5">
-        <v>1114.509805674884</v>
+        <v>183.683266804208</v>
       </c>
       <c r="R5">
-        <v>6687.058834049301</v>
+        <v>1102.099600825248</v>
       </c>
       <c r="S5">
-        <v>0.01159295335515798</v>
+        <v>0.001780957775527749</v>
       </c>
       <c r="T5">
-        <v>0.008039247128125702</v>
+        <v>0.001214680714413878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H6">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I6">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J6">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N6">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O6">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P6">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q6">
-        <v>254.837232970258</v>
+        <v>408.6515908477725</v>
       </c>
       <c r="R6">
-        <v>2293.535096732322</v>
+        <v>3677.864317629953</v>
       </c>
       <c r="S6">
-        <v>0.002650776278448949</v>
+        <v>0.003962207559047244</v>
       </c>
       <c r="T6">
-        <v>0.002757310186322325</v>
+        <v>0.004053563628469572</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N7">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O7">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P7">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q7">
-        <v>3099.218633726048</v>
+        <v>2528.710574566262</v>
       </c>
       <c r="R7">
-        <v>27892.96770353443</v>
+        <v>22758.39517109637</v>
       </c>
       <c r="S7">
-        <v>0.03223757823868217</v>
+        <v>0.02451789342702312</v>
       </c>
       <c r="T7">
-        <v>0.03353319689124915</v>
+        <v>0.02508319909075443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P8">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q8">
         <v>741.1728857395466</v>
@@ -948,10 +948,10 @@
         <v>6670.55597165592</v>
       </c>
       <c r="S8">
-        <v>0.007709562220749906</v>
+        <v>0.007186270349139638</v>
       </c>
       <c r="T8">
-        <v>0.008019407226549495</v>
+        <v>0.007351963186559162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N9">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O9">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P9">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q9">
-        <v>109.809932574736</v>
+        <v>112.502473728112</v>
       </c>
       <c r="R9">
-        <v>988.2893931726239</v>
+        <v>1012.522263553008</v>
       </c>
       <c r="S9">
-        <v>0.001142225415864411</v>
+        <v>0.001090802438557224</v>
       </c>
       <c r="T9">
-        <v>0.001188131114588835</v>
+        <v>0.001115952918893706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J10">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N10">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O10">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P10">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q10">
-        <v>332.4298609548026</v>
+        <v>77.793025018168</v>
       </c>
       <c r="R10">
-        <v>1994.579165728816</v>
+        <v>466.758150109008</v>
       </c>
       <c r="S10">
-        <v>0.003457882427133077</v>
+        <v>0.0007542662714922763</v>
       </c>
       <c r="T10">
-        <v>0.002397902460235259</v>
+        <v>0.0005144381894416536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J11">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N11">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O11">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P11">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q11">
-        <v>76.01144959968354</v>
+        <v>173.0709823689102</v>
       </c>
       <c r="R11">
-        <v>684.103046397152</v>
+        <v>1557.638841320192</v>
       </c>
       <c r="S11">
-        <v>0.0007906589831513151</v>
+        <v>0.001678063098130152</v>
       </c>
       <c r="T11">
-        <v>0.0008224353318213681</v>
+        <v>0.001716753965936353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H12">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I12">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J12">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N12">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O12">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P12">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q12">
-        <v>25339.28122193461</v>
+        <v>29568.28085354871</v>
       </c>
       <c r="R12">
-        <v>228053.5309974114</v>
+        <v>266114.5276819384</v>
       </c>
       <c r="S12">
-        <v>0.2635751644026459</v>
+        <v>0.2866883881766276</v>
       </c>
       <c r="T12">
-        <v>0.2741681716324419</v>
+        <v>0.2932985225278772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H13">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I13">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J13">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>146.311485</v>
       </c>
       <c r="O13">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P13">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q13">
-        <v>6059.846175888501</v>
+        <v>8666.554514781152</v>
       </c>
       <c r="R13">
-        <v>54538.61558299651</v>
+        <v>77998.99063303035</v>
       </c>
       <c r="S13">
-        <v>0.06303355403317205</v>
+        <v>0.08402925273855708</v>
       </c>
       <c r="T13">
-        <v>0.06556685376612073</v>
+        <v>0.08596670354906834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H14">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I14">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J14">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N14">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O14">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P14">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q14">
-        <v>897.8084773347</v>
+        <v>1315.49445530451</v>
       </c>
       <c r="R14">
-        <v>8080.276296012301</v>
+        <v>11839.45009774059</v>
       </c>
       <c r="S14">
-        <v>0.009338860678129203</v>
+        <v>0.01275478229236576</v>
       </c>
       <c r="T14">
-        <v>0.00971418670289213</v>
+        <v>0.013048867536312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H15">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I15">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J15">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N15">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O15">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P15">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q15">
-        <v>2717.95401642095</v>
+        <v>909.6359367180152</v>
       </c>
       <c r="R15">
-        <v>16307.7240985257</v>
+        <v>5457.815620308091</v>
       </c>
       <c r="S15">
-        <v>0.02827172445984201</v>
+        <v>0.008819655827028785</v>
       </c>
       <c r="T15">
-        <v>0.01960530442139856</v>
+        <v>0.00601533960437959</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H16">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I16">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J16">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N16">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O16">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P16">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q16">
-        <v>621.4713207172666</v>
+        <v>2023.72365811824</v>
       </c>
       <c r="R16">
-        <v>5593.2418864554</v>
+        <v>18213.51292306416</v>
       </c>
       <c r="S16">
-        <v>0.006464445620809008</v>
+        <v>0.01962163700130017</v>
       </c>
       <c r="T16">
-        <v>0.00672424976188978</v>
+        <v>0.02007405036060978</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H17">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I17">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J17">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N17">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O17">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P17">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q17">
-        <v>2780.51606129727</v>
+        <v>3340.218870391975</v>
       </c>
       <c r="R17">
-        <v>16683.09636778362</v>
+        <v>20041.31322235185</v>
       </c>
       <c r="S17">
-        <v>0.02892248487878269</v>
+        <v>0.03238612244157245</v>
       </c>
       <c r="T17">
-        <v>0.02005658061209754</v>
+        <v>0.02208856317930801</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H18">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I18">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J18">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>146.311485</v>
       </c>
       <c r="O18">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P18">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q18">
-        <v>664.955705470575</v>
+        <v>979.0284756470201</v>
       </c>
       <c r="R18">
-        <v>3989.73423282345</v>
+        <v>5874.17085388212</v>
       </c>
       <c r="S18">
-        <v>0.006916763259968392</v>
+        <v>0.009492472594279313</v>
       </c>
       <c r="T18">
-        <v>0.004796497274690233</v>
+        <v>0.006474226144388283</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H19">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I19">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J19">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N19">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O19">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P19">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q19">
-        <v>98.51782571626499</v>
+        <v>148.606522823148</v>
       </c>
       <c r="R19">
-        <v>591.1069542975901</v>
+        <v>891.639136938888</v>
       </c>
       <c r="S19">
-        <v>0.001024766720189281</v>
+        <v>0.001440860383859223</v>
       </c>
       <c r="T19">
-        <v>0.0007106345259825474</v>
+        <v>0.0009827214010832712</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H20">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I20">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J20">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N20">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O20">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P20">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q20">
-        <v>298.2450342744525</v>
+        <v>102.758193351222</v>
       </c>
       <c r="R20">
-        <v>1192.98013709781</v>
+        <v>411.0327734048881</v>
       </c>
       <c r="S20">
-        <v>0.003102297308777406</v>
+        <v>0.0009963237622679854</v>
       </c>
       <c r="T20">
-        <v>0.001434212316518085</v>
+        <v>0.0004530203826161562</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H21">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I21">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J21">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N21">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O21">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P21">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q21">
-        <v>68.19494893146999</v>
+        <v>228.6125454768854</v>
       </c>
       <c r="R21">
-        <v>409.16969358882</v>
+        <v>1371.675272861312</v>
       </c>
       <c r="S21">
-        <v>0.0007093529890849024</v>
+        <v>0.002216583456588015</v>
       </c>
       <c r="T21">
-        <v>0.0004919077827386352</v>
+        <v>0.001511793942340079</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H22">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I22">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J22">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N22">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O22">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P22">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q22">
-        <v>26748.71269499605</v>
+        <v>30374.75629591586</v>
       </c>
       <c r="R22">
-        <v>240738.4142549644</v>
+        <v>273372.8066632428</v>
       </c>
       <c r="S22">
-        <v>0.2782358459339302</v>
+        <v>0.2945078196079453</v>
       </c>
       <c r="T22">
-        <v>0.2894180615810161</v>
+        <v>0.3012982455037537</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H23">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I23">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J23">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>146.311485</v>
       </c>
       <c r="O23">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P23">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q23">
-        <v>6396.909324894281</v>
+        <v>8902.934959783192</v>
       </c>
       <c r="R23">
-        <v>57572.18392404853</v>
+        <v>80126.41463804872</v>
       </c>
       <c r="S23">
-        <v>0.06653963118410432</v>
+        <v>0.0863211522612165</v>
       </c>
       <c r="T23">
-        <v>0.06921383911184525</v>
+        <v>0.0883114470807255</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H24">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I24">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J24">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N24">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O24">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P24">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q24">
-        <v>947.7467338169528</v>
+        <v>1351.374592470006</v>
       </c>
       <c r="R24">
-        <v>8529.720604352575</v>
+        <v>12162.37133223005</v>
       </c>
       <c r="S24">
-        <v>0.009858310462320292</v>
+        <v>0.01310266923048302</v>
       </c>
       <c r="T24">
-        <v>0.01025451301895193</v>
+        <v>0.01340477565524731</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H25">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I25">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J25">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N25">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O25">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P25">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q25">
-        <v>2869.133124444007</v>
+        <v>934.4462747992591</v>
       </c>
       <c r="R25">
-        <v>17214.79874666404</v>
+        <v>5606.677648795555</v>
       </c>
       <c r="S25">
-        <v>0.02984426544482185</v>
+        <v>0.009060212113336359</v>
       </c>
       <c r="T25">
-        <v>0.02069579838010447</v>
+        <v>0.006179408110508124</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H26">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I26">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J26">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N26">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O26">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P26">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q26">
-        <v>656.0390431144494</v>
+        <v>2078.920760732811</v>
       </c>
       <c r="R26">
-        <v>5904.351388030044</v>
+        <v>18710.2868465953</v>
       </c>
       <c r="S26">
-        <v>0.00682401355938082</v>
+        <v>0.02015681753678578</v>
       </c>
       <c r="T26">
-        <v>0.007098268628649483</v>
+        <v>0.02062157047937686</v>
       </c>
     </row>
   </sheetData>
